--- a/predictions полгода до/Прогнозы_ETS_CA12.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_CA12.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20652320.63930364</v>
+        <v>20763388.90961535</v>
       </c>
       <c r="C2" t="n">
-        <v>20461291.18856923</v>
+        <v>20706630.30329973</v>
       </c>
       <c r="D2" t="n">
-        <v>19843078.75639364</v>
+        <v>21357460.51973875</v>
       </c>
       <c r="E2" t="n">
-        <v>19936941.20011939</v>
+        <v>22046118.89466478</v>
       </c>
       <c r="F2" t="n">
-        <v>20073270.6050465</v>
+        <v>22954364.97824871</v>
       </c>
       <c r="G2" t="n">
-        <v>20433905.87624287</v>
+        <v>19049647.0454924</v>
       </c>
       <c r="H2" t="n">
-        <v>15986185.38367193</v>
+        <v>22629105.93430798</v>
       </c>
       <c r="I2" t="n">
-        <v>19027327.93747356</v>
+        <v>23906824.837742</v>
       </c>
       <c r="J2" t="n">
-        <v>19771393.39979063</v>
+        <v>22821440.66401634</v>
       </c>
       <c r="K2" t="n">
-        <v>18156933.21845171</v>
+        <v>21736512.04702848</v>
       </c>
       <c r="L2" t="n">
-        <v>16547460.27661847</v>
+        <v>22458956.47543234</v>
       </c>
       <c r="M2" t="n">
-        <v>16749990.11942036</v>
+        <v>22542884.33562918</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11827365.61703152</v>
+        <v>9675477.966374718</v>
       </c>
       <c r="C3" t="n">
-        <v>12482332.94499418</v>
+        <v>10489353.75631251</v>
       </c>
       <c r="D3" t="n">
-        <v>13423922.93320691</v>
+        <v>11283662.84207237</v>
       </c>
       <c r="E3" t="n">
-        <v>14339560.40919624</v>
+        <v>11965651.12787429</v>
       </c>
       <c r="F3" t="n">
-        <v>15136481.03607208</v>
+        <v>13376778.41144831</v>
       </c>
       <c r="G3" t="n">
-        <v>16656172.74072731</v>
+        <v>12840830.13013749</v>
       </c>
       <c r="H3" t="n">
-        <v>16222376.30217019</v>
+        <v>13442603.01706038</v>
       </c>
       <c r="I3" t="n">
-        <v>16919856.4378647</v>
+        <v>16303035.86569702</v>
       </c>
       <c r="J3" t="n">
-        <v>19869697.36019825</v>
+        <v>14924919.96070676</v>
       </c>
       <c r="K3" t="n">
-        <v>18574618.68620366</v>
+        <v>16385857.57350796</v>
       </c>
       <c r="L3" t="n">
-        <v>20112179.54103437</v>
+        <v>16077772.67285396</v>
       </c>
       <c r="M3" t="n">
-        <v>19874353.77106101</v>
+        <v>16104220.93232593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4947834.891163141</v>
+        <v>11152122.98656367</v>
       </c>
       <c r="C4" t="n">
-        <v>4611847.260243971</v>
+        <v>11670257.20674515</v>
       </c>
       <c r="D4" t="n">
-        <v>5129997.336724923</v>
+        <v>11865075.88651831</v>
       </c>
       <c r="E4" t="n">
-        <v>5324815.075731309</v>
+        <v>11889653.52878457</v>
       </c>
       <c r="F4" t="n">
-        <v>5349391.816352338</v>
+        <v>12189425.46016978</v>
       </c>
       <c r="G4" t="n">
-        <v>5649162.839975535</v>
+        <v>11945602.3817555</v>
       </c>
       <c r="H4" t="n">
-        <v>5405338.876237163</v>
+        <v>11986657.02251167</v>
       </c>
       <c r="I4" t="n">
-        <v>5446392.669754611</v>
+        <v>11694119.40707248</v>
       </c>
       <c r="J4" t="n">
-        <v>5153851.251421128</v>
+        <v>12227392.80531593</v>
       </c>
       <c r="K4" t="n">
-        <v>5667170.21434566</v>
+        <v>12475043.58936477</v>
       </c>
       <c r="L4" t="n">
-        <v>5746963.804168794</v>
+        <v>13476238.69771836</v>
       </c>
       <c r="M4" t="n">
-        <v>6345159.672914403</v>
+        <v>14388388.10125113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3931330.90989888</v>
+        <v>22799535.28521073</v>
       </c>
       <c r="C5" t="n">
-        <v>5457941.901434829</v>
+        <v>24624022.48375807</v>
       </c>
       <c r="D5" t="n">
-        <v>6952746.908824037</v>
+        <v>25180054.4315674</v>
       </c>
       <c r="E5" t="n">
-        <v>8415749.119480582</v>
+        <v>27182950.45194668</v>
       </c>
       <c r="F5" t="n">
-        <v>9846946.942160072</v>
+        <v>37020939.26472623</v>
       </c>
       <c r="G5" t="n">
-        <v>11246340.3765641</v>
+        <v>20743791.25727659</v>
       </c>
       <c r="H5" t="n">
-        <v>12613929.42339506</v>
+        <v>30364859.9805283</v>
       </c>
       <c r="I5" t="n">
-        <v>13949711.08961814</v>
+        <v>30957159.18509838</v>
       </c>
       <c r="J5" t="n">
-        <v>15253672.16377969</v>
+        <v>31788326.36880058</v>
       </c>
       <c r="K5" t="n">
-        <v>16545766.45750857</v>
+        <v>33381751.68596302</v>
       </c>
       <c r="L5" t="n">
-        <v>17953992.98878988</v>
+        <v>34622192.52977578</v>
       </c>
       <c r="M5" t="n">
-        <v>19565435.93308545</v>
+        <v>35002985.09811687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9292311.703460421</v>
+        <v>1912134.638443128</v>
       </c>
       <c r="C6" t="n">
-        <v>10149449.70147238</v>
+        <v>2767003.272132751</v>
       </c>
       <c r="D6" t="n">
-        <v>10433201.12799503</v>
+        <v>1080196.815247672</v>
       </c>
       <c r="E6" t="n">
-        <v>11272900.66023875</v>
+        <v>3095398.911411444</v>
       </c>
       <c r="F6" t="n">
-        <v>11843312.25710102</v>
+        <v>1746992.365868451</v>
       </c>
       <c r="G6" t="n">
-        <v>17573391.25432132</v>
+        <v>1231027.913965042</v>
       </c>
       <c r="H6" t="n">
-        <v>8660680.392414985</v>
+        <v>3298444.216244943</v>
       </c>
       <c r="I6" t="n">
-        <v>13678055.90623982</v>
+        <v>3712096.519410266</v>
       </c>
       <c r="J6" t="n">
-        <v>11953942.77296598</v>
+        <v>2170274.20482738</v>
       </c>
       <c r="K6" t="n">
-        <v>12309574.36761076</v>
+        <v>5442674.831574513</v>
       </c>
       <c r="L6" t="n">
-        <v>14085159.87238165</v>
+        <v>1350750.307524603</v>
       </c>
       <c r="M6" t="n">
-        <v>13972228.65489175</v>
+        <v>2445342.436992429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2143472.32612923</v>
+        <v>8353811.001566979</v>
       </c>
       <c r="C7" t="n">
-        <v>2321246.859091978</v>
+        <v>8186611.285019059</v>
       </c>
       <c r="D7" t="n">
-        <v>3109619.400410565</v>
+        <v>8838243.982896974</v>
       </c>
       <c r="E7" t="n">
-        <v>3000129.281757526</v>
+        <v>7982799.822147256</v>
       </c>
       <c r="F7" t="n">
-        <v>3144930.371580742</v>
+        <v>8625055.477300284</v>
       </c>
       <c r="G7" t="n">
-        <v>4617055.246359656</v>
+        <v>8164276.433042116</v>
       </c>
       <c r="H7" t="n">
-        <v>1855042.595753846</v>
+        <v>9929209.651139168</v>
       </c>
       <c r="I7" t="n">
-        <v>3349240.838840244</v>
+        <v>11198174.05233244</v>
       </c>
       <c r="J7" t="n">
-        <v>3545212.449966636</v>
+        <v>10343824.10161116</v>
       </c>
       <c r="K7" t="n">
-        <v>3971150.99623226</v>
+        <v>11110244.77591797</v>
       </c>
       <c r="L7" t="n">
-        <v>2983195.516352788</v>
+        <v>10098852.65554131</v>
       </c>
       <c r="M7" t="n">
-        <v>4264670.578800775</v>
+        <v>10422609.5535525</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1724269.977914647</v>
+        <v>13963978.49285576</v>
       </c>
       <c r="C8" t="n">
-        <v>1506330.869796351</v>
+        <v>16787615.90228501</v>
       </c>
       <c r="D8" t="n">
-        <v>1383191.732745762</v>
+        <v>16198288.19333041</v>
       </c>
       <c r="E8" t="n">
-        <v>1617174.575762549</v>
+        <v>17549641.26444123</v>
       </c>
       <c r="F8" t="n">
-        <v>2095569.130426942</v>
+        <v>23563527.72875066</v>
       </c>
       <c r="G8" t="n">
-        <v>1872456.408025626</v>
+        <v>11624146.98437662</v>
       </c>
       <c r="H8" t="n">
-        <v>1019958.163897415</v>
+        <v>17589379.11117904</v>
       </c>
       <c r="I8" t="n">
-        <v>1434082.878731269</v>
+        <v>19435677.17566237</v>
       </c>
       <c r="J8" t="n">
-        <v>1366610.812024684</v>
+        <v>18967050.65533788</v>
       </c>
       <c r="K8" t="n">
-        <v>1461614.726536383</v>
+        <v>17453425.44369882</v>
       </c>
       <c r="L8" t="n">
-        <v>1414370.354654243</v>
+        <v>17989060.50434883</v>
       </c>
       <c r="M8" t="n">
-        <v>1629936.693141636</v>
+        <v>17525067.70919108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2635045.510489865</v>
+        <v>26030228.49737646</v>
       </c>
       <c r="C9" t="n">
-        <v>2635045.948033227</v>
+        <v>24964504.34800495</v>
       </c>
       <c r="D9" t="n">
-        <v>2635046.374803177</v>
+        <v>25279693.16216829</v>
       </c>
       <c r="E9" t="n">
-        <v>2635046.788706652</v>
+        <v>25175133.98531126</v>
       </c>
       <c r="F9" t="n">
-        <v>2635047.189746371</v>
+        <v>31923356.81627299</v>
       </c>
       <c r="G9" t="n">
-        <v>2635047.588778722</v>
+        <v>24515280.86576253</v>
       </c>
       <c r="H9" t="n">
-        <v>2635083.946219164</v>
+        <v>26224699.89284656</v>
       </c>
       <c r="I9" t="n">
-        <v>2872430.096732107</v>
+        <v>28889766.78862275</v>
       </c>
       <c r="J9" t="n">
-        <v>3177663.179696263</v>
+        <v>30143255.51550451</v>
       </c>
       <c r="K9" t="n">
-        <v>3312476.040359061</v>
+        <v>31020131.10305716</v>
       </c>
       <c r="L9" t="n">
-        <v>3702186.769838879</v>
+        <v>33646531.10827754</v>
       </c>
       <c r="M9" t="n">
-        <v>3293639.457706769</v>
+        <v>31588179.39618828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4836536.584372865</v>
+        <v>27023581.04288868</v>
       </c>
       <c r="C10" t="n">
-        <v>5412932.56387024</v>
+        <v>32226577.45399841</v>
       </c>
       <c r="D10" t="n">
-        <v>5866556.887095283</v>
+        <v>37472234.00934055</v>
       </c>
       <c r="E10" t="n">
-        <v>5195214.617864199</v>
+        <v>42396381.13730685</v>
       </c>
       <c r="F10" t="n">
-        <v>5616712.085793772</v>
+        <v>47636231.98200607</v>
       </c>
       <c r="G10" t="n">
-        <v>8042308.551113427</v>
+        <v>51677408.5522386</v>
       </c>
       <c r="H10" t="n">
-        <v>4047743.368196988</v>
+        <v>56504660.0923506</v>
       </c>
       <c r="I10" t="n">
-        <v>5963852.927145639</v>
+        <v>62170131.47572655</v>
       </c>
       <c r="J10" t="n">
-        <v>7513141.796475768</v>
+        <v>67904371.63015139</v>
       </c>
       <c r="K10" t="n">
-        <v>6963160.482676025</v>
+        <v>73117113.97267951</v>
       </c>
       <c r="L10" t="n">
-        <v>7001195.065880086</v>
+        <v>77485387.47913177</v>
       </c>
       <c r="M10" t="n">
-        <v>6827063.740123541</v>
+        <v>84076065.80093807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3684090.234022696</v>
+        <v>16037420.13044868</v>
       </c>
       <c r="C11" t="n">
-        <v>3253663.434866822</v>
+        <v>17207834.03728709</v>
       </c>
       <c r="D11" t="n">
-        <v>4173604.526299385</v>
+        <v>18551325.63319275</v>
       </c>
       <c r="E11" t="n">
-        <v>2598690.901443274</v>
+        <v>19113853.43568347</v>
       </c>
       <c r="F11" t="n">
-        <v>4550164.610507461</v>
+        <v>18599938.88291024</v>
       </c>
       <c r="G11" t="n">
-        <v>3020777.590099312</v>
+        <v>18636256.92021364</v>
       </c>
       <c r="H11" t="n">
-        <v>2912081.201558054</v>
+        <v>19650280.87531629</v>
       </c>
       <c r="I11" t="n">
-        <v>4105882.878187271</v>
+        <v>19993280.85671314</v>
       </c>
       <c r="J11" t="n">
-        <v>4023975.069008192</v>
+        <v>20768221.19206468</v>
       </c>
       <c r="K11" t="n">
-        <v>3219057.231262036</v>
+        <v>21156021.79656272</v>
       </c>
       <c r="L11" t="n">
-        <v>6683670.481043787</v>
+        <v>22846325.44567854</v>
       </c>
       <c r="M11" t="n">
-        <v>2956565.957350256</v>
+        <v>23299462.29491675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>401890.8958870759</v>
+        <v>39854353.03827712</v>
       </c>
       <c r="C12" t="n">
-        <v>74472.12810830094</v>
+        <v>44895881.80702204</v>
       </c>
       <c r="D12" t="n">
-        <v>9413.53716851346</v>
+        <v>47390765.42931979</v>
       </c>
       <c r="E12" t="n">
-        <v>-102466.3082351043</v>
+        <v>45464519.95575976</v>
       </c>
       <c r="F12" t="n">
-        <v>-38731.38297581248</v>
+        <v>38612850.20338782</v>
       </c>
       <c r="G12" t="n">
-        <v>142247.1957597324</v>
+        <v>38521553.97712337</v>
       </c>
       <c r="H12" t="n">
-        <v>-265018.4433714254</v>
+        <v>41862721.97684485</v>
       </c>
       <c r="I12" t="n">
-        <v>608603.7356279822</v>
+        <v>42755653.29376583</v>
       </c>
       <c r="J12" t="n">
-        <v>1104190.991205242</v>
+        <v>41463209.63151694</v>
       </c>
       <c r="K12" t="n">
-        <v>367306.585487215</v>
+        <v>38057101.60154583</v>
       </c>
       <c r="L12" t="n">
-        <v>175104.6547296438</v>
+        <v>43158976.35012732</v>
       </c>
       <c r="M12" t="n">
-        <v>-189695.9246486932</v>
+        <v>47185680.80886587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1605713.142765875</v>
+        <v>43189828.89007391</v>
       </c>
       <c r="C13" t="n">
-        <v>1720218.04139603</v>
+        <v>42153027.66867686</v>
       </c>
       <c r="D13" t="n">
-        <v>1834828.056476007</v>
+        <v>45874223.42656027</v>
       </c>
       <c r="E13" t="n">
-        <v>2160725.933440366</v>
+        <v>39722937.09957302</v>
       </c>
       <c r="F13" t="n">
-        <v>2154313.958017143</v>
+        <v>37641554.59306844</v>
       </c>
       <c r="G13" t="n">
-        <v>2381204.983075076</v>
+        <v>33444246.42440981</v>
       </c>
       <c r="H13" t="n">
-        <v>2468473.067029215</v>
+        <v>37230360.88784923</v>
       </c>
       <c r="I13" t="n">
-        <v>2614408.701642923</v>
+        <v>38598908.88626516</v>
       </c>
       <c r="J13" t="n">
-        <v>2978155.577357426</v>
+        <v>37919735.17930641</v>
       </c>
       <c r="K13" t="n">
-        <v>3001765.961120393</v>
+        <v>33449914.66443806</v>
       </c>
       <c r="L13" t="n">
-        <v>3428849.418633967</v>
+        <v>38288922.16266784</v>
       </c>
       <c r="M13" t="n">
-        <v>3315345.276407706</v>
+        <v>42503955.37586627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-369825.8423766869</v>
+        <v>3151151.317977898</v>
       </c>
       <c r="C14" t="n">
-        <v>-324157.4103630725</v>
+        <v>4232423.346692291</v>
       </c>
       <c r="D14" t="n">
-        <v>-513973.2002828709</v>
+        <v>5291167.75447276</v>
       </c>
       <c r="E14" t="n">
-        <v>75802.68049989786</v>
+        <v>6327386.794253219</v>
       </c>
       <c r="F14" t="n">
-        <v>-625942.2020084806</v>
+        <v>7341070.489276972</v>
       </c>
       <c r="G14" t="n">
-        <v>-455718.7316864501</v>
+        <v>8332248.86361584</v>
       </c>
       <c r="H14" t="n">
-        <v>-672603.3688587892</v>
+        <v>9359933.034751736</v>
       </c>
       <c r="I14" t="n">
-        <v>314124.4118570901</v>
+        <v>10342005.94992064</v>
       </c>
       <c r="J14" t="n">
-        <v>1165432.845387037</v>
+        <v>11258572.85117098</v>
       </c>
       <c r="K14" t="n">
-        <v>459820.706226431</v>
+        <v>12136897.44162291</v>
       </c>
       <c r="L14" t="n">
-        <v>-213864.892843575</v>
+        <v>13174839.77616001</v>
       </c>
       <c r="M14" t="n">
-        <v>-212803.4665551343</v>
+        <v>14316173.46270162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1028281.809285405</v>
+        <v>4208718.605881147</v>
       </c>
       <c r="C15" t="n">
-        <v>995855.1982123834</v>
+        <v>3892173.705236607</v>
       </c>
       <c r="D15" t="n">
-        <v>1059651.970267819</v>
+        <v>3845274.678433962</v>
       </c>
       <c r="E15" t="n">
-        <v>1142731.461520828</v>
+        <v>4412814.050690879</v>
       </c>
       <c r="F15" t="n">
-        <v>1189196.595562506</v>
+        <v>4141287.013541581</v>
       </c>
       <c r="G15" t="n">
-        <v>1458941.097369094</v>
+        <v>4074573.600701908</v>
       </c>
       <c r="H15" t="n">
-        <v>1460609.102250464</v>
+        <v>4117937.570559312</v>
       </c>
       <c r="I15" t="n">
-        <v>1440554.917202469</v>
+        <v>5001231.215876853</v>
       </c>
       <c r="J15" t="n">
-        <v>1506089.454693941</v>
+        <v>5402613.416168708</v>
       </c>
       <c r="K15" t="n">
-        <v>1609073.638891608</v>
+        <v>4423532.004540246</v>
       </c>
       <c r="L15" t="n">
-        <v>1608498.138170338</v>
+        <v>4710559.000731919</v>
       </c>
       <c r="M15" t="n">
-        <v>1758958.13168369</v>
+        <v>4110721.580240356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1317311.1326305</v>
+        <v>10147761.4471677</v>
       </c>
       <c r="C16" t="n">
-        <v>1421980.68722076</v>
+        <v>12629592.68723175</v>
       </c>
       <c r="D16" t="n">
-        <v>1560456.082562571</v>
+        <v>12166100.48034732</v>
       </c>
       <c r="E16" t="n">
-        <v>1709071.866177826</v>
+        <v>13438045.03554738</v>
       </c>
       <c r="F16" t="n">
-        <v>1813888.255030404</v>
+        <v>13975487.76637698</v>
       </c>
       <c r="G16" t="n">
-        <v>2155101.710436314</v>
+        <v>12899452.6513977</v>
       </c>
       <c r="H16" t="n">
-        <v>2110149.314035237</v>
+        <v>11663457.06032496</v>
       </c>
       <c r="I16" t="n">
-        <v>2380479.551561479</v>
+        <v>12228833.15939764</v>
       </c>
       <c r="J16" t="n">
-        <v>2476486.236011113</v>
+        <v>13670767.64701542</v>
       </c>
       <c r="K16" t="n">
-        <v>2613434.566283508</v>
+        <v>12967355.47492895</v>
       </c>
       <c r="L16" t="n">
-        <v>2819212.886208749</v>
+        <v>13170806.09882547</v>
       </c>
       <c r="M16" t="n">
-        <v>2888331.470532543</v>
+        <v>13657166.23588858</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7552000.779142393</v>
+        <v>4999091.223989557</v>
       </c>
       <c r="C17" t="n">
-        <v>8345137.019824847</v>
+        <v>5518337.451120497</v>
       </c>
       <c r="D17" t="n">
-        <v>9139073.418440953</v>
+        <v>5655248.637736922</v>
       </c>
       <c r="E17" t="n">
-        <v>9707863.696759915</v>
+        <v>5967370.290849389</v>
       </c>
       <c r="F17" t="n">
-        <v>10450105.91700613</v>
+        <v>5576483.502800849</v>
       </c>
       <c r="G17" t="n">
-        <v>11101425.85266064</v>
+        <v>5097063.078552419</v>
       </c>
       <c r="H17" t="n">
-        <v>11770902.51756742</v>
+        <v>5944007.220280022</v>
       </c>
       <c r="I17" t="n">
-        <v>13118737.07853726</v>
+        <v>5474176.053053373</v>
       </c>
       <c r="J17" t="n">
-        <v>13993941.22391284</v>
+        <v>5821026.060478287</v>
       </c>
       <c r="K17" t="n">
-        <v>14507017.07004785</v>
+        <v>5669525.513364114</v>
       </c>
       <c r="L17" t="n">
-        <v>16213212.56405347</v>
+        <v>5993574.209900215</v>
       </c>
       <c r="M17" t="n">
-        <v>15964504.28241201</v>
+        <v>6227047.448840111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1163354.405652712</v>
+        <v>3294545.844641719</v>
       </c>
       <c r="C18" t="n">
-        <v>1039567.234657925</v>
+        <v>3622519.057054506</v>
       </c>
       <c r="D18" t="n">
-        <v>1481362.454780963</v>
+        <v>3270286.003929378</v>
       </c>
       <c r="E18" t="n">
-        <v>1230217.764646244</v>
+        <v>3351780.49567554</v>
       </c>
       <c r="F18" t="n">
-        <v>1525235.187667611</v>
+        <v>3923907.074783204</v>
       </c>
       <c r="G18" t="n">
-        <v>3450694.499831488</v>
+        <v>3649917.504862884</v>
       </c>
       <c r="H18" t="n">
-        <v>978614.3451618771</v>
+        <v>4228010.90525453</v>
       </c>
       <c r="I18" t="n">
-        <v>1551412.372941958</v>
+        <v>4083092.869973553</v>
       </c>
       <c r="J18" t="n">
-        <v>1770601.745366099</v>
+        <v>3885769.930108527</v>
       </c>
       <c r="K18" t="n">
-        <v>1638380.236798737</v>
+        <v>4766733.294019453</v>
       </c>
       <c r="L18" t="n">
-        <v>1266906.586070209</v>
+        <v>4290258.550869308</v>
       </c>
       <c r="M18" t="n">
-        <v>1580518.299901698</v>
+        <v>3790317.758422652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-77108.6687678202</v>
+        <v>6594464.875964617</v>
       </c>
       <c r="C19" t="n">
-        <v>-185051.9340590761</v>
+        <v>5155357.737131863</v>
       </c>
       <c r="D19" t="n">
-        <v>96815.89654972925</v>
+        <v>6391321.717169941</v>
       </c>
       <c r="E19" t="n">
-        <v>-156026.3902601804</v>
+        <v>5599799.477017771</v>
       </c>
       <c r="F19" t="n">
-        <v>-259990.6074782547</v>
+        <v>6046333.583152097</v>
       </c>
       <c r="G19" t="n">
-        <v>-124460.912102111</v>
+        <v>3239482.74460038</v>
       </c>
       <c r="H19" t="n">
-        <v>-252486.6621133486</v>
+        <v>4849650.437048983</v>
       </c>
       <c r="I19" t="n">
-        <v>-231496.97585677</v>
+        <v>6339716.193786494</v>
       </c>
       <c r="J19" t="n">
-        <v>-103234.7777130031</v>
+        <v>3939739.249109054</v>
       </c>
       <c r="K19" t="n">
-        <v>-298011.6170205387</v>
+        <v>3513239.881826145</v>
       </c>
       <c r="L19" t="n">
-        <v>-235151.9770418061</v>
+        <v>4705539.072855295</v>
       </c>
       <c r="M19" t="n">
-        <v>-363274.384541694</v>
+        <v>5613785.376698028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1454007.750315613</v>
+        <v>2024678.519896114</v>
       </c>
       <c r="C20" t="n">
-        <v>1645375.348465218</v>
+        <v>2568886.570557413</v>
       </c>
       <c r="D20" t="n">
-        <v>2410666.632879425</v>
+        <v>2934256.259761633</v>
       </c>
       <c r="E20" t="n">
-        <v>1752138.155805225</v>
+        <v>3284318.978112619</v>
       </c>
       <c r="F20" t="n">
-        <v>1970474.585436856</v>
+        <v>2671466.786923186</v>
       </c>
       <c r="G20" t="n">
-        <v>2711509.723566254</v>
+        <v>2044252.354154089</v>
       </c>
       <c r="H20" t="n">
-        <v>232791.594981289</v>
+        <v>3247909.60188341</v>
       </c>
       <c r="I20" t="n">
-        <v>1498007.876463703</v>
+        <v>3408582.718902936</v>
       </c>
       <c r="J20" t="n">
-        <v>1597271.565424286</v>
+        <v>1817185.523959148</v>
       </c>
       <c r="K20" t="n">
-        <v>1763083.244547181</v>
+        <v>2273030.800866229</v>
       </c>
       <c r="L20" t="n">
-        <v>1470890.123963818</v>
+        <v>3224186.365700438</v>
       </c>
       <c r="M20" t="n">
-        <v>1821988.179582548</v>
+        <v>2245884.509985039</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1616721.788974959</v>
+        <v>4083136.515675923</v>
       </c>
       <c r="C21" t="n">
-        <v>1108445.524630507</v>
+        <v>3915487.377725333</v>
       </c>
       <c r="D21" t="n">
-        <v>1161443.749660341</v>
+        <v>5174799.239227611</v>
       </c>
       <c r="E21" t="n">
-        <v>1728371.907033907</v>
+        <v>4790184.570027867</v>
       </c>
       <c r="F21" t="n">
-        <v>1210364.871737243</v>
+        <v>5032545.264883735</v>
       </c>
       <c r="G21" t="n">
-        <v>1209197.139653882</v>
+        <v>4315653.179914449</v>
       </c>
       <c r="H21" t="n">
-        <v>1072549.174546194</v>
+        <v>3951747.353599602</v>
       </c>
       <c r="I21" t="n">
-        <v>1715723.163527984</v>
+        <v>4305463.862882388</v>
       </c>
       <c r="J21" t="n">
-        <v>1305655.940127339</v>
+        <v>4544424.17532293</v>
       </c>
       <c r="K21" t="n">
-        <v>1882947.889842641</v>
+        <v>4815877.848744268</v>
       </c>
       <c r="L21" t="n">
-        <v>1822896.423174644</v>
+        <v>5024091.16301127</v>
       </c>
       <c r="M21" t="n">
-        <v>1441805.766433412</v>
+        <v>4300462.874552451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93397.74172943068</v>
+        <v>10484042.26035082</v>
       </c>
       <c r="C22" t="n">
-        <v>46.77736128878314</v>
+        <v>11831778.98822434</v>
       </c>
       <c r="D22" t="n">
-        <v>-6399.005714132101</v>
+        <v>13641704.09209606</v>
       </c>
       <c r="E22" t="n">
-        <v>66921.28008643369</v>
+        <v>12574834.92215377</v>
       </c>
       <c r="F22" t="n">
-        <v>693260.8363467451</v>
+        <v>12774137.15505292</v>
       </c>
       <c r="G22" t="n">
-        <v>1091496.630217629</v>
+        <v>10284455.08208151</v>
       </c>
       <c r="H22" t="n">
-        <v>993757.4407849398</v>
+        <v>11489202.16515415</v>
       </c>
       <c r="I22" t="n">
-        <v>565087.4748345613</v>
+        <v>11501372.53006274</v>
       </c>
       <c r="J22" t="n">
-        <v>1062811.901225171</v>
+        <v>12855815.50125772</v>
       </c>
       <c r="K22" t="n">
-        <v>857963.0108610322</v>
+        <v>11128359.14345498</v>
       </c>
       <c r="L22" t="n">
-        <v>512306.6627937523</v>
+        <v>13203601.2235286</v>
       </c>
       <c r="M22" t="n">
-        <v>460669.6774592359</v>
+        <v>12074302.92888816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-42477.28452189122</v>
+        <v>12371924.0765904</v>
       </c>
       <c r="C23" t="n">
-        <v>-42475.55982379393</v>
+        <v>10852074.76904827</v>
       </c>
       <c r="D23" t="n">
-        <v>-42474.02844638599</v>
+        <v>8653341.178108295</v>
       </c>
       <c r="E23" t="n">
-        <v>-41617.50772594832</v>
+        <v>8347554.172862412</v>
       </c>
       <c r="F23" t="n">
-        <v>-36819.89827551111</v>
+        <v>8481436.311539244</v>
       </c>
       <c r="G23" t="n">
-        <v>180355.0297700683</v>
+        <v>5218742.387716108</v>
       </c>
       <c r="H23" t="n">
-        <v>-42475.80994131981</v>
+        <v>7446982.186838643</v>
       </c>
       <c r="I23" t="n">
-        <v>78284.81675532811</v>
+        <v>7062656.044570359</v>
       </c>
       <c r="J23" t="n">
-        <v>39014.07293195801</v>
+        <v>7476761.334334035</v>
       </c>
       <c r="K23" t="n">
-        <v>-27434.67064917221</v>
+        <v>6615373.040888049</v>
       </c>
       <c r="L23" t="n">
-        <v>6229.529661022895</v>
+        <v>8125092.10966552</v>
       </c>
       <c r="M23" t="n">
-        <v>-42479.71857203638</v>
+        <v>8410115.411794212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14208208.48313804</v>
+        <v>8761812.008244161</v>
       </c>
       <c r="C24" t="n">
-        <v>12323955.99713648</v>
+        <v>9598496.136142964</v>
       </c>
       <c r="D24" t="n">
-        <v>13386950.98224037</v>
+        <v>9775442.900242174</v>
       </c>
       <c r="E24" t="n">
-        <v>12893270.42849763</v>
+        <v>9585476.081239834</v>
       </c>
       <c r="F24" t="n">
-        <v>13267394.18417118</v>
+        <v>12002967.23876634</v>
       </c>
       <c r="G24" t="n">
-        <v>16160329.23201813</v>
+        <v>7861195.80023124</v>
       </c>
       <c r="H24" t="n">
-        <v>10745821.55565533</v>
+        <v>10114065.56359299</v>
       </c>
       <c r="I24" t="n">
-        <v>13686787.54445546</v>
+        <v>10798409.69360547</v>
       </c>
       <c r="J24" t="n">
-        <v>15235057.12085599</v>
+        <v>11502377.17388846</v>
       </c>
       <c r="K24" t="n">
-        <v>14588803.26474072</v>
+        <v>9020470.757473907</v>
       </c>
       <c r="L24" t="n">
-        <v>14154578.92990332</v>
+        <v>10304387.00699972</v>
       </c>
       <c r="M24" t="n">
-        <v>14481846.33647737</v>
+        <v>10697778.12732695</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2538399.915604843</v>
+        <v>4938622.261699564</v>
       </c>
       <c r="C25" t="n">
-        <v>2659575.978487993</v>
+        <v>6530000.118582115</v>
       </c>
       <c r="D25" t="n">
-        <v>2533104.128643065</v>
+        <v>6431717.461870721</v>
       </c>
       <c r="E25" t="n">
-        <v>3186980.127012506</v>
+        <v>5938419.821239851</v>
       </c>
       <c r="F25" t="n">
-        <v>3055989.591658807</v>
+        <v>6778610.921935968</v>
       </c>
       <c r="G25" t="n">
-        <v>3254067.783721202</v>
+        <v>4719213.965111923</v>
       </c>
       <c r="H25" t="n">
-        <v>1874140.98060758</v>
+        <v>5463674.192527149</v>
       </c>
       <c r="I25" t="n">
-        <v>3027207.555245767</v>
+        <v>6875548.994154016</v>
       </c>
       <c r="J25" t="n">
-        <v>2950638.91316587</v>
+        <v>6122020.792802488</v>
       </c>
       <c r="K25" t="n">
-        <v>3023219.994574653</v>
+        <v>4681234.543098726</v>
       </c>
       <c r="L25" t="n">
-        <v>2895239.935402294</v>
+        <v>5198293.10623596</v>
       </c>
       <c r="M25" t="n">
-        <v>3014637.383116755</v>
+        <v>6130150.01705257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10192576.87506353</v>
+        <v>11236725.93229876</v>
       </c>
       <c r="C26" t="n">
-        <v>10583460.54680552</v>
+        <v>10701166.19038308</v>
       </c>
       <c r="D26" t="n">
-        <v>9744354.654227816</v>
+        <v>10908080.29416572</v>
       </c>
       <c r="E26" t="n">
-        <v>9929349.693881014</v>
+        <v>9934334.187978461</v>
       </c>
       <c r="F26" t="n">
-        <v>9751822.416270584</v>
+        <v>12028407.68441921</v>
       </c>
       <c r="G26" t="n">
-        <v>11213382.11503506</v>
+        <v>9459437.766963223</v>
       </c>
       <c r="H26" t="n">
-        <v>9836765.418134332</v>
+        <v>11570877.11008787</v>
       </c>
       <c r="I26" t="n">
-        <v>10140326.95022361</v>
+        <v>11581113.47216779</v>
       </c>
       <c r="J26" t="n">
-        <v>11835583.17399769</v>
+        <v>10465200.07621158</v>
       </c>
       <c r="K26" t="n">
-        <v>13692477.0460705</v>
+        <v>11503380.16953334</v>
       </c>
       <c r="L26" t="n">
-        <v>13781578.14269426</v>
+        <v>10741145.94398628</v>
       </c>
       <c r="M26" t="n">
-        <v>15049041.89884231</v>
+        <v>10295500.44282387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14697945.5557286</v>
+        <v>4355424.879888896</v>
       </c>
       <c r="C27" t="n">
-        <v>15408101.26790045</v>
+        <v>3762067.123755633</v>
       </c>
       <c r="D27" t="n">
-        <v>15476852.07329655</v>
+        <v>4152217.337772796</v>
       </c>
       <c r="E27" t="n">
-        <v>15612292.71510832</v>
+        <v>3989719.646973623</v>
       </c>
       <c r="F27" t="n">
-        <v>15842977.98473256</v>
+        <v>4929656.457807263</v>
       </c>
       <c r="G27" t="n">
-        <v>21132005.08497826</v>
+        <v>4043959.152234483</v>
       </c>
       <c r="H27" t="n">
-        <v>15096778.08088241</v>
+        <v>4737386.422525462</v>
       </c>
       <c r="I27" t="n">
-        <v>16464007.14405026</v>
+        <v>5102283.847361429</v>
       </c>
       <c r="J27" t="n">
-        <v>17261505.44940574</v>
+        <v>4499620.948685524</v>
       </c>
       <c r="K27" t="n">
-        <v>16830838.71203451</v>
+        <v>4097650.850938263</v>
       </c>
       <c r="L27" t="n">
-        <v>16734902.93911733</v>
+        <v>3980086.461421357</v>
       </c>
       <c r="M27" t="n">
-        <v>17593132.17810533</v>
+        <v>5286625.503499852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15429240.48804451</v>
+        <v>10439931.26921555</v>
       </c>
       <c r="C28" t="n">
-        <v>16832640.37054523</v>
+        <v>8755848.858424049</v>
       </c>
       <c r="D28" t="n">
-        <v>18370992.28743452</v>
+        <v>8549000.552551253</v>
       </c>
       <c r="E28" t="n">
-        <v>20027735.47773254</v>
+        <v>9331315.831237208</v>
       </c>
       <c r="F28" t="n">
-        <v>21438814.00272427</v>
+        <v>12787111.58264409</v>
       </c>
       <c r="G28" t="n">
-        <v>23241294.4912564</v>
+        <v>8925983.907538909</v>
       </c>
       <c r="H28" t="n">
-        <v>23920783.23348551</v>
+        <v>12013634.32210707</v>
       </c>
       <c r="I28" t="n">
-        <v>25462128.61004944</v>
+        <v>11283881.51948234</v>
       </c>
       <c r="J28" t="n">
-        <v>27917402.43205423</v>
+        <v>12168994.68011395</v>
       </c>
       <c r="K28" t="n">
-        <v>30517270.91283248</v>
+        <v>9034497.34315435</v>
       </c>
       <c r="L28" t="n">
-        <v>32671302.05004949</v>
+        <v>11645634.07490515</v>
       </c>
       <c r="M28" t="n">
-        <v>34056350.68267618</v>
+        <v>14179818.93702804</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17161594.07229195</v>
+        <v>2441245.498866085</v>
       </c>
       <c r="C29" t="n">
-        <v>17396823.31104856</v>
+        <v>2522303.532958304</v>
       </c>
       <c r="D29" t="n">
-        <v>18174878.84138993</v>
+        <v>2515886.263967537</v>
       </c>
       <c r="E29" t="n">
-        <v>19138100.99927565</v>
+        <v>2631828.211501228</v>
       </c>
       <c r="F29" t="n">
-        <v>19311003.07729908</v>
+        <v>2685125.782346609</v>
       </c>
       <c r="G29" t="n">
-        <v>18318745.29407379</v>
+        <v>2781386.137097282</v>
       </c>
       <c r="H29" t="n">
-        <v>18154615.84540755</v>
+        <v>2835011.957776215</v>
       </c>
       <c r="I29" t="n">
-        <v>18836614.61299623</v>
+        <v>3084459.518251674</v>
       </c>
       <c r="J29" t="n">
-        <v>18859672.86412651</v>
+        <v>3245721.356146814</v>
       </c>
       <c r="K29" t="n">
-        <v>19325055.92472501</v>
+        <v>3308391.344427302</v>
       </c>
       <c r="L29" t="n">
-        <v>19415007.14751821</v>
+        <v>3486630.489929817</v>
       </c>
       <c r="M29" t="n">
-        <v>20816235.81537434</v>
+        <v>3560480.245815105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48580544.60603666</v>
+        <v>728830.9248896845</v>
       </c>
       <c r="C30" t="n">
-        <v>43496338.35645045</v>
+        <v>736781.4289656042</v>
       </c>
       <c r="D30" t="n">
-        <v>48537908.98310963</v>
+        <v>745790.9378268312</v>
       </c>
       <c r="E30" t="n">
-        <v>51032820.81866772</v>
+        <v>762408.4942891998</v>
       </c>
       <c r="F30" t="n">
-        <v>49106580.85184635</v>
+        <v>1041457.669385583</v>
       </c>
       <c r="G30" t="n">
-        <v>42254910.5981218</v>
+        <v>809879.87714702</v>
       </c>
       <c r="H30" t="n">
-        <v>42163620.82594955</v>
+        <v>811009.7705629693</v>
       </c>
       <c r="I30" t="n">
-        <v>45504820.68819012</v>
+        <v>801626.8814031347</v>
       </c>
       <c r="J30" t="n">
-        <v>46397797.50432153</v>
+        <v>906206.2424588164</v>
       </c>
       <c r="K30" t="n">
-        <v>45105381.00220796</v>
+        <v>812905.6766398987</v>
       </c>
       <c r="L30" t="n">
-        <v>41699291.42053865</v>
+        <v>774331.8757856452</v>
       </c>
       <c r="M30" t="n">
-        <v>46801231.64859273</v>
+        <v>894156.9441314497</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40210435.50402168</v>
+        <v>622177.6230730717</v>
       </c>
       <c r="C31" t="n">
-        <v>43684186.64590711</v>
+        <v>799178.0939156696</v>
       </c>
       <c r="D31" t="n">
-        <v>42647382.21641525</v>
+        <v>851751.5752153313</v>
       </c>
       <c r="E31" t="n">
-        <v>46368574.92461184</v>
+        <v>912780.5731066912</v>
       </c>
       <c r="F31" t="n">
-        <v>40217285.70016181</v>
+        <v>885293.8290066654</v>
       </c>
       <c r="G31" t="n">
-        <v>38135900.45188387</v>
+        <v>602830.1064296002</v>
       </c>
       <c r="H31" t="n">
-        <v>33938589.69727965</v>
+        <v>810162.896568579</v>
       </c>
       <c r="I31" t="n">
-        <v>37724701.73058303</v>
+        <v>941390.4598690755</v>
       </c>
       <c r="J31" t="n">
-        <v>39093247.45288242</v>
+        <v>816394.5254205026</v>
       </c>
       <c r="K31" t="n">
-        <v>38414071.62607398</v>
+        <v>707296.1130212632</v>
       </c>
       <c r="L31" t="n">
-        <v>33944249.14500003</v>
+        <v>733455.2174189908</v>
       </c>
       <c r="M31" t="n">
-        <v>38783254.83433731</v>
+        <v>665108.8280404399</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>782218.2453477676</v>
+        <v>1879791.919276783</v>
       </c>
       <c r="C32" t="n">
-        <v>957964.9429966985</v>
+        <v>2096268.157298918</v>
       </c>
       <c r="D32" t="n">
-        <v>1130276.409292838</v>
+        <v>2110369.824008538</v>
       </c>
       <c r="E32" t="n">
-        <v>1299153.507416044</v>
+        <v>2029899.935540406</v>
       </c>
       <c r="F32" t="n">
-        <v>1464597.175037215</v>
+        <v>2168586.513077991</v>
       </c>
       <c r="G32" t="n">
-        <v>1626608.042186317</v>
+        <v>1927895.039874433</v>
       </c>
       <c r="H32" t="n">
-        <v>1785186.077503179</v>
+        <v>2023995.936434297</v>
       </c>
       <c r="I32" t="n">
-        <v>1999359.671943261</v>
+        <v>2234848.219375246</v>
       </c>
       <c r="J32" t="n">
-        <v>2187037.684730834</v>
+        <v>2347365.591540266</v>
       </c>
       <c r="K32" t="n">
-        <v>2328319.469571075</v>
+        <v>2238537.747031852</v>
       </c>
       <c r="L32" t="n">
-        <v>2450411.872916054</v>
+        <v>2325302.966090997</v>
       </c>
       <c r="M32" t="n">
-        <v>2751170.747924508</v>
+        <v>2376780.555422649</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3425279.216770691</v>
+        <v>2323665.597450811</v>
       </c>
       <c r="C33" t="n">
-        <v>4156918.759964702</v>
+        <v>2252783.035159208</v>
       </c>
       <c r="D33" t="n">
-        <v>3840375.817347889</v>
+        <v>2261294.485718324</v>
       </c>
       <c r="E33" t="n">
-        <v>3793478.675836433</v>
+        <v>2166342.805217024</v>
       </c>
       <c r="F33" t="n">
-        <v>4361019.857109754</v>
+        <v>2268005.113421021</v>
       </c>
       <c r="G33" t="n">
-        <v>4089494.559939418</v>
+        <v>2261646.007226445</v>
       </c>
       <c r="H33" t="n">
-        <v>4022782.814397892</v>
+        <v>2194930.239783607</v>
       </c>
       <c r="I33" t="n">
-        <v>4066148.37795058</v>
+        <v>2388021.055464318</v>
       </c>
       <c r="J33" t="n">
-        <v>4949443.53727254</v>
+        <v>2468755.957429757</v>
       </c>
       <c r="K33" t="n">
-        <v>5350827.186725779</v>
+        <v>2326789.837268836</v>
       </c>
       <c r="L33" t="n">
-        <v>4371747.15000754</v>
+        <v>2752312.726671909</v>
       </c>
       <c r="M33" t="n">
-        <v>4658775.443966324</v>
+        <v>2926557.510967493</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10102305.4197747</v>
+        <v>3222926.971057999</v>
       </c>
       <c r="C34" t="n">
-        <v>9378436.858899007</v>
+        <v>2514173.85929804</v>
       </c>
       <c r="D34" t="n">
-        <v>11860262.9529908</v>
+        <v>3397386.116765214</v>
       </c>
       <c r="E34" t="n">
-        <v>11396765.32493128</v>
+        <v>3014255.768690875</v>
       </c>
       <c r="F34" t="n">
-        <v>12668704.87327201</v>
+        <v>3453207.398073708</v>
       </c>
       <c r="G34" t="n">
-        <v>13206143.4222542</v>
+        <v>2999671.177267875</v>
       </c>
       <c r="H34" t="n">
-        <v>12130104.00325851</v>
+        <v>2899703.441742887</v>
       </c>
       <c r="I34" t="n">
-        <v>10894104.02785597</v>
+        <v>3172786.259425008</v>
       </c>
       <c r="J34" t="n">
-        <v>11459477.93895212</v>
+        <v>3155166.33657931</v>
       </c>
       <c r="K34" t="n">
-        <v>12901405.4530796</v>
+        <v>3383728.247510769</v>
       </c>
       <c r="L34" t="n">
-        <v>12197981.20831266</v>
+        <v>3513233.963342303</v>
       </c>
       <c r="M34" t="n">
-        <v>12401415.75293295</v>
+        <v>3371743.921428881</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4934345.756444804</v>
+        <v>1630388.997067054</v>
       </c>
       <c r="C35" t="n">
-        <v>4930309.132866441</v>
+        <v>1774865.996201549</v>
       </c>
       <c r="D35" t="n">
-        <v>5449551.374127739</v>
+        <v>1934166.421239669</v>
       </c>
       <c r="E35" t="n">
-        <v>5586457.903691594</v>
+        <v>1782250.162169913</v>
       </c>
       <c r="F35" t="n">
-        <v>5898573.868530825</v>
+        <v>1769749.447194007</v>
       </c>
       <c r="G35" t="n">
-        <v>5507684.247796655</v>
+        <v>1649329.016780265</v>
       </c>
       <c r="H35" t="n">
-        <v>5028267.469549119</v>
+        <v>1739500.422405613</v>
       </c>
       <c r="I35" t="n">
-        <v>5875213.836184264</v>
+        <v>2085231.652351762</v>
       </c>
       <c r="J35" t="n">
-        <v>5405382.443371394</v>
+        <v>1876415.597108092</v>
       </c>
       <c r="K35" t="n">
-        <v>5752230.0470244</v>
+        <v>1840327.164975088</v>
       </c>
       <c r="L35" t="n">
-        <v>5600726.228727665</v>
+        <v>1770696.966378331</v>
       </c>
       <c r="M35" t="n">
-        <v>5924777.0297542</v>
+        <v>2133488.474151271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1855421.593972362</v>
+        <v>1333314.759099327</v>
       </c>
       <c r="C36" t="n">
-        <v>2235620.132311691</v>
+        <v>1457415.021370694</v>
       </c>
       <c r="D36" t="n">
-        <v>2441212.260295651</v>
+        <v>1605759.264827181</v>
       </c>
       <c r="E36" t="n">
-        <v>1970215.73521589</v>
+        <v>1318539.228622249</v>
       </c>
       <c r="F36" t="n">
-        <v>1936563.896400889</v>
+        <v>1392221.668290127</v>
       </c>
       <c r="G36" t="n">
-        <v>2397161.841607676</v>
+        <v>1358108.833244504</v>
       </c>
       <c r="H36" t="n">
-        <v>2015260.115674825</v>
+        <v>1699847.223123929</v>
       </c>
       <c r="I36" t="n">
-        <v>2489058.643478018</v>
+        <v>1620565.573298917</v>
       </c>
       <c r="J36" t="n">
-        <v>2243459.215118878</v>
+        <v>1615043.158336412</v>
       </c>
       <c r="K36" t="n">
-        <v>1949068.910621516</v>
+        <v>1565452.456682771</v>
       </c>
       <c r="L36" t="n">
-        <v>2736581.610117513</v>
+        <v>1790678.983862211</v>
       </c>
       <c r="M36" t="n">
-        <v>2170263.471644878</v>
+        <v>1726656.741105548</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6739801.254542755</v>
+        <v>4641768.787417045</v>
       </c>
       <c r="C37" t="n">
-        <v>6581760.530357195</v>
+        <v>4195574.48115282</v>
       </c>
       <c r="D37" t="n">
-        <v>5142658.666743947</v>
+        <v>5083046.235097617</v>
       </c>
       <c r="E37" t="n">
-        <v>6378627.735381547</v>
+        <v>4631804.520545475</v>
       </c>
       <c r="F37" t="n">
-        <v>5587110.398371249</v>
+        <v>4176311.26627851</v>
       </c>
       <c r="G37" t="n">
-        <v>6033649.221391266</v>
+        <v>3555798.713634362</v>
       </c>
       <c r="H37" t="n">
-        <v>3226802.914183423</v>
+        <v>3688230.730110554</v>
       </c>
       <c r="I37" t="n">
-        <v>4836974.952605657</v>
+        <v>4876131.553842673</v>
       </c>
       <c r="J37" t="n">
-        <v>6327044.869477652</v>
+        <v>4309311.596710528</v>
       </c>
       <c r="K37" t="n">
-        <v>3927071.899257389</v>
+        <v>3876192.100198289</v>
       </c>
       <c r="L37" t="n">
-        <v>3500576.320347509</v>
+        <v>4379591.532831502</v>
       </c>
       <c r="M37" t="n">
-        <v>4692879.113698557</v>
+        <v>4968012.412646958</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2099395.256881527</v>
+        <v>3884778.891605349</v>
       </c>
       <c r="C38" t="n">
-        <v>2237033.975873162</v>
+        <v>4272535.768033284</v>
       </c>
       <c r="D38" t="n">
-        <v>2781256.54712317</v>
+        <v>4313549.165117066</v>
       </c>
       <c r="E38" t="n">
-        <v>3146634.327585611</v>
+        <v>3835146.634383343</v>
       </c>
       <c r="F38" t="n">
-        <v>3496702.611483946</v>
+        <v>4283978.409348405</v>
       </c>
       <c r="G38" t="n">
-        <v>2883855.350334084</v>
+        <v>3528113.218154117</v>
       </c>
       <c r="H38" t="n">
-        <v>2256643.393252144</v>
+        <v>4066575.350028509</v>
       </c>
       <c r="I38" t="n">
-        <v>3460299.566064713</v>
+        <v>3880697.014450212</v>
       </c>
       <c r="J38" t="n">
-        <v>3620969.910029156</v>
+        <v>4128767.731576186</v>
       </c>
       <c r="K38" t="n">
-        <v>2029571.382580179</v>
+        <v>4548257.493535531</v>
       </c>
       <c r="L38" t="n">
-        <v>2485417.791502161</v>
+        <v>4400516.802713198</v>
       </c>
       <c r="M38" t="n">
-        <v>3436575.940612132</v>
+        <v>4525725.671589835</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3584776.305241736</v>
+        <v>5223338.061372005</v>
       </c>
       <c r="C39" t="n">
-        <v>3832021.76332756</v>
+        <v>5362480.37622314</v>
       </c>
       <c r="D39" t="n">
-        <v>3664372.510937072</v>
+        <v>5919959.235381335</v>
       </c>
       <c r="E39" t="n">
-        <v>4923683.127364337</v>
+        <v>5111339.593193651</v>
       </c>
       <c r="F39" t="n">
-        <v>4539067.51443835</v>
+        <v>5167437.355189119</v>
       </c>
       <c r="G39" t="n">
-        <v>4781427.069890099</v>
+        <v>4905398.003909055</v>
       </c>
       <c r="H39" t="n">
-        <v>4064534.938781861</v>
+        <v>5176435.258358649</v>
       </c>
       <c r="I39" t="n">
-        <v>3700630.319551026</v>
+        <v>5769560.256055858</v>
       </c>
       <c r="J39" t="n">
-        <v>4054348.079404766</v>
+        <v>6097831.990577375</v>
       </c>
       <c r="K39" t="n">
-        <v>4293302.573615949</v>
+        <v>6389923.913315266</v>
       </c>
       <c r="L39" t="n">
-        <v>4564752.53120938</v>
+        <v>6554596.528792047</v>
       </c>
       <c r="M39" t="n">
-        <v>4772961.481157856</v>
+        <v>6643400.958286362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10508525.05578905</v>
+        <v>5466173.534920091</v>
       </c>
       <c r="C40" t="n">
-        <v>10238123.98680556</v>
+        <v>5428091.703550625</v>
       </c>
       <c r="D40" t="n">
-        <v>11585861.82294983</v>
+        <v>5809708.065256955</v>
       </c>
       <c r="E40" t="n">
-        <v>13395787.95545053</v>
+        <v>5254591.894353124</v>
       </c>
       <c r="F40" t="n">
-        <v>12328919.76929941</v>
+        <v>5643241.154530249</v>
       </c>
       <c r="G40" t="n">
-        <v>12528222.91692372</v>
+        <v>4784214.121307614</v>
       </c>
       <c r="H40" t="n">
-        <v>10038541.70253291</v>
+        <v>5061640.554239728</v>
       </c>
       <c r="I40" t="n">
-        <v>11243289.57126342</v>
+        <v>5673873.953254049</v>
       </c>
       <c r="J40" t="n">
-        <v>11255460.69663417</v>
+        <v>5791580.017792983</v>
       </c>
       <c r="K40" t="n">
-        <v>12609904.34635853</v>
+        <v>5673923.814525585</v>
       </c>
       <c r="L40" t="n">
-        <v>10882448.60479723</v>
+        <v>6001592.553310534</v>
       </c>
       <c r="M40" t="n">
-        <v>12957691.24497551</v>
+        <v>5726462.499052301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7777798.566953018</v>
+        <v>3242673.23952062</v>
       </c>
       <c r="C41" t="n">
-        <v>12225354.9188226</v>
+        <v>3306416.307692388</v>
       </c>
       <c r="D41" t="n">
-        <v>10705504.98045866</v>
+        <v>3416799.356226932</v>
       </c>
       <c r="E41" t="n">
-        <v>8506770.764363788</v>
+        <v>2957346.149344562</v>
       </c>
       <c r="F41" t="n">
-        <v>8200983.147345957</v>
+        <v>3527966.935908212</v>
       </c>
       <c r="G41" t="n">
-        <v>8334864.685202682</v>
+        <v>2905053.700467267</v>
       </c>
       <c r="H41" t="n">
-        <v>5072170.169220623</v>
+        <v>2735230.194296557</v>
       </c>
       <c r="I41" t="n">
-        <v>7300409.380919253</v>
+        <v>3194113.460973104</v>
       </c>
       <c r="J41" t="n">
-        <v>6916082.666042565</v>
+        <v>3445079.454134383</v>
       </c>
       <c r="K41" t="n">
-        <v>7330187.39152711</v>
+        <v>3020887.671458668</v>
       </c>
       <c r="L41" t="n">
-        <v>6468798.542787902</v>
+        <v>3358680.646804139</v>
       </c>
       <c r="M41" t="n">
-        <v>7978517.069453376</v>
+        <v>3559430.863801386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9553438.38476059</v>
+        <v>4324491.199348856</v>
       </c>
       <c r="C42" t="n">
-        <v>8514907.275582664</v>
+        <v>4824401.446469938</v>
       </c>
       <c r="D42" t="n">
-        <v>9351593.959271977</v>
+        <v>4777541.670112036</v>
       </c>
       <c r="E42" t="n">
-        <v>9528543.169011196</v>
+        <v>4528208.927611924</v>
       </c>
       <c r="F42" t="n">
-        <v>9338578.689659314</v>
+        <v>4327096.914415814</v>
       </c>
       <c r="G42" t="n">
-        <v>11756072.06440534</v>
+        <v>3460446.141408492</v>
       </c>
       <c r="H42" t="n">
-        <v>7614302.732936727</v>
+        <v>3789107.875612871</v>
       </c>
       <c r="I42" t="n">
-        <v>9867174.497819902</v>
+        <v>4172693.851849424</v>
       </c>
       <c r="J42" t="n">
-        <v>10551520.51818717</v>
+        <v>4212799.833998802</v>
       </c>
       <c r="K42" t="n">
-        <v>11255489.77608057</v>
+        <v>4268215.80537891</v>
       </c>
       <c r="L42" t="n">
-        <v>8773585.023856152</v>
+        <v>4371655.259975621</v>
       </c>
       <c r="M42" t="n">
-        <v>10057502.82953696</v>
+        <v>4496060.464547886</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5966615.588830837</v>
+        <v>2979358.454383721</v>
       </c>
       <c r="C43" t="n">
-        <v>5165785.903846005</v>
+        <v>3111965.068567277</v>
       </c>
       <c r="D43" t="n">
-        <v>6757156.939138692</v>
+        <v>3133238.431248103</v>
       </c>
       <c r="E43" t="n">
-        <v>6658873.847072968</v>
+        <v>3437645.25035827</v>
       </c>
       <c r="F43" t="n">
-        <v>6165573.861447456</v>
+        <v>3251649.062179566</v>
       </c>
       <c r="G43" t="n">
-        <v>7005757.094668511</v>
+        <v>2533850.558262981</v>
       </c>
       <c r="H43" t="n">
-        <v>4946357.459604775</v>
+        <v>2357702.311928892</v>
       </c>
       <c r="I43" t="n">
-        <v>5690820.771816558</v>
+        <v>3217394.287295853</v>
       </c>
       <c r="J43" t="n">
-        <v>7102700.268671473</v>
+        <v>2958762.979788866</v>
       </c>
       <c r="K43" t="n">
-        <v>6349177.645453908</v>
+        <v>2993295.378244603</v>
       </c>
       <c r="L43" t="n">
-        <v>4908393.264334087</v>
+        <v>3150916.008247799</v>
       </c>
       <c r="M43" t="n">
-        <v>5425457.553446514</v>
+        <v>3195739.374116862</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13800888.80812793</v>
+        <v>5330098.287622025</v>
       </c>
       <c r="C44" t="n">
-        <v>15717641.76225917</v>
+        <v>6200666.535511831</v>
       </c>
       <c r="D44" t="n">
-        <v>15182078.6902362</v>
+        <v>5755875.586279802</v>
       </c>
       <c r="E44" t="n">
-        <v>15388993.35080912</v>
+        <v>5538947.731818956</v>
       </c>
       <c r="F44" t="n">
-        <v>14415247.7840737</v>
+        <v>6386465.163355839</v>
       </c>
       <c r="G44" t="n">
-        <v>16509322.02941249</v>
+        <v>4863762.657615066</v>
       </c>
       <c r="H44" t="n">
-        <v>13940352.75950523</v>
+        <v>5237063.201034904</v>
       </c>
       <c r="I44" t="n">
-        <v>16051792.74131985</v>
+        <v>5952615.082605386</v>
       </c>
       <c r="J44" t="n">
-        <v>16062029.73170802</v>
+        <v>5405405.26522977</v>
       </c>
       <c r="K44" t="n">
-        <v>14946116.73156685</v>
+        <v>5186749.768866356</v>
       </c>
       <c r="L44" t="n">
-        <v>15984297.20647042</v>
+        <v>5732544.079557324</v>
       </c>
       <c r="M44" t="n">
-        <v>15222232.46291697</v>
+        <v>6416189.223394732</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6501936.905683902</v>
+        <v>3213232.429272114</v>
       </c>
       <c r="C45" t="n">
-        <v>6078110.550169353</v>
+        <v>3676700.563153734</v>
       </c>
       <c r="D45" t="n">
-        <v>5484777.998425088</v>
+        <v>3302919.421586069</v>
       </c>
       <c r="E45" t="n">
-        <v>5874948.446957481</v>
+        <v>3392542.306420992</v>
       </c>
       <c r="F45" t="n">
-        <v>5712439.303872213</v>
+        <v>3442357.544714489</v>
       </c>
       <c r="G45" t="n">
-        <v>6652391.626517583</v>
+        <v>2887897.560406467</v>
       </c>
       <c r="H45" t="n">
-        <v>5766698.484631117</v>
+        <v>3172685.534664289</v>
       </c>
       <c r="I45" t="n">
-        <v>6460105.125688879</v>
+        <v>3509625.977533742</v>
       </c>
       <c r="J45" t="n">
-        <v>6825012.964592766</v>
+        <v>3601218.554073916</v>
       </c>
       <c r="K45" t="n">
-        <v>6222353.897968469</v>
+        <v>3403458.932529415</v>
       </c>
       <c r="L45" t="n">
-        <v>5820404.837597752</v>
+        <v>3399124.333489029</v>
       </c>
       <c r="M45" t="n">
-        <v>5702896.698309959</v>
+        <v>3728684.913424667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14988860.24650431</v>
+        <v>2167926.163536673</v>
       </c>
       <c r="C46" t="n">
-        <v>11919475.37857147</v>
+        <v>2240715.301875318</v>
       </c>
       <c r="D46" t="n">
-        <v>10235400.50305578</v>
+        <v>2515074.72131949</v>
       </c>
       <c r="E46" t="n">
-        <v>10028545.69213177</v>
+        <v>1903988.941593836</v>
       </c>
       <c r="F46" t="n">
-        <v>10810854.14537474</v>
+        <v>2176669.950501405</v>
       </c>
       <c r="G46" t="n">
-        <v>14266647.83529425</v>
+        <v>1760377.761301564</v>
       </c>
       <c r="H46" t="n">
-        <v>10405529.54211401</v>
+        <v>2032016.853262037</v>
       </c>
       <c r="I46" t="n">
-        <v>13493192.58030169</v>
+        <v>2652045.753942886</v>
       </c>
       <c r="J46" t="n">
-        <v>12763455.31625851</v>
+        <v>2038573.921136469</v>
       </c>
       <c r="K46" t="n">
-        <v>13648585.00585794</v>
+        <v>2249240.143610842</v>
       </c>
       <c r="L46" t="n">
-        <v>10514100.7363484</v>
+        <v>2115856.668109207</v>
       </c>
       <c r="M46" t="n">
-        <v>13125255.11727275</v>
+        <v>2173162.480378153</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2230108.390613985</v>
+        <v>1625144.738386652</v>
       </c>
       <c r="C47" t="n">
-        <v>2287408.91395131</v>
+        <v>1652231.873252248</v>
       </c>
       <c r="D47" t="n">
-        <v>2351762.783661671</v>
+        <v>1721054.240711819</v>
       </c>
       <c r="E47" t="n">
-        <v>2329035.342556613</v>
+        <v>1595470.769636713</v>
       </c>
       <c r="F47" t="n">
-        <v>2429061.272102201</v>
+        <v>1604325.417083862</v>
       </c>
       <c r="G47" t="n">
-        <v>2466837.282073528</v>
+        <v>1667125.984348134</v>
       </c>
       <c r="H47" t="n">
-        <v>2547970.327197693</v>
+        <v>1724191.73271507</v>
       </c>
       <c r="I47" t="n">
-        <v>2586863.514614756</v>
+        <v>1878055.454427345</v>
       </c>
       <c r="J47" t="n">
-        <v>2821973.25885449</v>
+        <v>2104105.840683936</v>
       </c>
       <c r="K47" t="n">
-        <v>2969291.024069677</v>
+        <v>2180044.677165819</v>
       </c>
       <c r="L47" t="n">
-        <v>3018410.701659197</v>
+        <v>1986003.254547472</v>
       </c>
       <c r="M47" t="n">
-        <v>3183489.922710427</v>
+        <v>2074115.551123315</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>741742.4798672855</v>
+        <v>5306258.914533463</v>
       </c>
       <c r="C48" t="n">
-        <v>743218.3893025002</v>
+        <v>5549198.319515185</v>
       </c>
       <c r="D48" t="n">
-        <v>751168.567409138</v>
+        <v>5779123.643732297</v>
       </c>
       <c r="E48" t="n">
-        <v>760177.8701419089</v>
+        <v>5545612.919125698</v>
       </c>
       <c r="F48" t="n">
-        <v>776795.3068654825</v>
+        <v>5752306.618426914</v>
       </c>
       <c r="G48" t="n">
-        <v>1055844.438652671</v>
+        <v>5429491.617857958</v>
       </c>
       <c r="H48" t="n">
-        <v>824266.6601859181</v>
+        <v>5722695.661901273</v>
       </c>
       <c r="I48" t="n">
-        <v>825396.6117615626</v>
+        <v>5895000.243025626</v>
       </c>
       <c r="J48" t="n">
-        <v>816013.8413790467</v>
+        <v>6123225.754039629</v>
       </c>
       <c r="K48" t="n">
-        <v>920593.3930264496</v>
+        <v>6058317.21733716</v>
       </c>
       <c r="L48" t="n">
-        <v>827293.1066367822</v>
+        <v>5973851.025111092</v>
       </c>
       <c r="M48" t="n">
-        <v>788719.704269005</v>
+        <v>6152198.563854121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>675938.4986852127</v>
+        <v>637748.9866268035</v>
       </c>
       <c r="C49" t="n">
-        <v>617994.1750427696</v>
+        <v>718756.8695301999</v>
       </c>
       <c r="D49" t="n">
-        <v>794995.0990456375</v>
+        <v>596975.2485864005</v>
       </c>
       <c r="E49" t="n">
-        <v>847569.0171387042</v>
+        <v>620009.6336699089</v>
       </c>
       <c r="F49" t="n">
-        <v>908598.4356148981</v>
+        <v>657074.7717246286</v>
       </c>
       <c r="G49" t="n">
-        <v>881112.0956883398</v>
+        <v>581255.6587843578</v>
       </c>
       <c r="H49" t="n">
-        <v>598648.7612604508</v>
+        <v>712334.0514091259</v>
       </c>
       <c r="I49" t="n">
-        <v>805981.9232926583</v>
+        <v>902591.9440949914</v>
       </c>
       <c r="J49" t="n">
-        <v>937209.842465824</v>
+        <v>926746.5866399722</v>
       </c>
       <c r="K49" t="n">
-        <v>812214.2472961496</v>
+        <v>763263.2322987836</v>
       </c>
       <c r="L49" t="n">
-        <v>703116.1581646935</v>
+        <v>764579.1332090946</v>
       </c>
       <c r="M49" t="n">
-        <v>729275.5696293365</v>
+        <v>806143.7828232928</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1660183.092717448</v>
+        <v>2913865.581972533</v>
       </c>
       <c r="C50" t="n">
-        <v>1673342.257621752</v>
+        <v>2922673.898757212</v>
       </c>
       <c r="D50" t="n">
-        <v>1889816.002644212</v>
+        <v>2944448.020636344</v>
       </c>
       <c r="E50" t="n">
-        <v>1903914.36162268</v>
+        <v>3058118.974201833</v>
       </c>
       <c r="F50" t="n">
-        <v>1823444.400324055</v>
+        <v>3205847.044144234</v>
       </c>
       <c r="G50" t="n">
-        <v>1962130.184181118</v>
+        <v>3049826.363684973</v>
       </c>
       <c r="H50" t="n">
-        <v>1721437.910819342</v>
+        <v>3176287.076886937</v>
       </c>
       <c r="I50" t="n">
-        <v>1817540.105313084</v>
+        <v>3329242.365728426</v>
       </c>
       <c r="J50" t="n">
-        <v>2028391.319124004</v>
+        <v>3548450.823298957</v>
       </c>
       <c r="K50" t="n">
-        <v>2140905.723721501</v>
+        <v>3585800.22467793</v>
       </c>
       <c r="L50" t="n">
-        <v>2032074.624977278</v>
+        <v>3939379.108647143</v>
       </c>
       <c r="M50" t="n">
-        <v>2118835.729490565</v>
+        <v>3809239.922137554</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2552368.850342128</v>
+        <v>2976782.215247194</v>
       </c>
       <c r="C51" t="n">
-        <v>2519778.668965762</v>
+        <v>3154420.576637708</v>
       </c>
       <c r="D51" t="n">
-        <v>2448898.296346151</v>
+        <v>3225006.926934232</v>
       </c>
       <c r="E51" t="n">
-        <v>2457410.208824417</v>
+        <v>3309807.762580813</v>
       </c>
       <c r="F51" t="n">
-        <v>2362455.713162675</v>
+        <v>3342325.797292012</v>
       </c>
       <c r="G51" t="n">
-        <v>2464116.537319167</v>
+        <v>3271451.608232849</v>
       </c>
       <c r="H51" t="n">
-        <v>2457760.709881163</v>
+        <v>3474951.723373032</v>
       </c>
       <c r="I51" t="n">
-        <v>2391043.867830046</v>
+        <v>3568461.282768284</v>
       </c>
       <c r="J51" t="n">
-        <v>2584131.863024017</v>
+        <v>3921921.666226199</v>
       </c>
       <c r="K51" t="n">
-        <v>2664872.782679119</v>
+        <v>3920420.687839677</v>
       </c>
       <c r="L51" t="n">
-        <v>2522910.904997519</v>
+        <v>3966955.304356479</v>
       </c>
       <c r="M51" t="n">
-        <v>2948437.232264447</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2983868.964010211</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3462676.005675937</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2753919.851569749</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3637130.020919288</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3253997.974715481</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3692946.43654397</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3239412.401772026</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3139446.208065797</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3412526.944296326</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3394906.267437058</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3623474.010413624</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3752992.367177453</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1443737.961432485</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1383381.188599727</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1527862.235471091</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1687159.921931491</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1535243.11072774</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1522742.833226067</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1402320.083087384</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1492498.423348602</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1838227.96314979</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1629405.636228708</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1593315.659274393</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1523680.250140201</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1603270.859805458</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1354429.674614039</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1478530.205222153</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1626874.710161659</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1339654.927522613</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1413337.613308404</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1379225.017017328</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1720963.638504789</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1641682.211299765</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1636160.012571474</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1586569.518539806</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1811796.245993283</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4819195.893076771</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5033356.662285583</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4587160.624495171</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5474623.053359436</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5023370.437204198</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4567861.278005848</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3947343.833439915</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4079777.571802941</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5267673.023536338</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4700868.187799104</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4267777.532574322</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4771173.831018657</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3940551.287317786</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3919382.399264264</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4307139.319354706</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4348152.767184975</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3869750.284888719</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4318582.108293355</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3562716.970152754</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4101179.15194035</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3915300.870681512</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4163371.642865054</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4582861.4620668</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4435120.830612657</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5665724.774549713</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5525370.153472514</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5664513.429564598</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6221992.832434372</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5413373.56355587</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5469471.648063338</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5207432.656076099</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5478470.480598669</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6071596.505063254</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6399870.261851695</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6691966.361099946</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6856647.79352281</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5143966.471114488</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5432603.2961338</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5394522.293740476</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5776139.45173801</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5221024.046662849</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5609674.039786853</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4750647.706825745</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5028074.808356985</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5640308.845984387</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5758015.514999866</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5640359.88541232</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5968029.165304842</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3453000.286875818</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3187348.430454466</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3251093.002783655</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3361477.497402936</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2902025.679274805</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3472647.797252884</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2849735.835045713</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2679913.543869928</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3138797.969717541</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3389765.063845208</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2965574.323683635</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3303368.284863884</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4216447.817047116</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4319761.489246625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4819672.850133392</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4772814.148514274</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4523482.440329428</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4322371.422495457</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3455721.605530316</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3784384.256036347</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4167971.109226398</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4208077.92866639</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4263494.698137513</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4366934.911695761</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2887184.504141046</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3004345.724999891</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3136951.696684584</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3158224.441489528</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3462630.667445593</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3276633.910731476</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2558834.863059288</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2382686.09758635</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3242377.578487097</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2983745.801188338</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3018277.754571956</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3175897.964184514</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6178076.648534786</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5394403.961547081</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6264972.837717196</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5820182.500365488</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5603255.241285802</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6450773.251963125</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4928071.308975592</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5301372.39875537</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6016924.810184452</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5469715.506321888</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5251060.50700696</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5796855.298293775</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3494510.911552105</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3315600.362491178</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3779067.449990947</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3405284.770717015</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3494906.447484581</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3544722.095261791</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2990262.368826729</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3275049.96023799</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3611990.374075542</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3703584.628415154</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3505828.542892124</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3501497.254635915</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2166765.666275555</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2160630.133719119</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2233419.389566867</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2507778.920829931</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1896693.248740966</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2169374.360146084</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1753082.269598086</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2024721.454486363</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2644750.444937344</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2031278.695072216</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2241944.996436673</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2108561.595818044</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1792894.135164622</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1760875.823056834</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1787964.592234964</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1856786.970630207</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1731203.516159989</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1740058.196824768</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1802858.787291989</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1859924.561142811</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2013788.304448041</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2239838.696460964</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2315777.533343223</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2121740.83507365</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4882092.212841642</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5060966.963137505</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5303901.734624229</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5533822.37294205</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5300310.28978415</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5507003.117341288</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5184184.719144756</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5477385.978278772</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5649688.976329039</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5877909.113153284</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5812995.664639496</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5728527.681083148</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>686831.2305219113</v>
-      </c>
-      <c r="C67" t="n">
-        <v>667717.8934835084</v>
-      </c>
-      <c r="D67" t="n">
-        <v>748720.0912067015</v>
-      </c>
-      <c r="E67" t="n">
-        <v>626932.6239511615</v>
-      </c>
-      <c r="F67" t="n">
-        <v>649974.3124667179</v>
-      </c>
-      <c r="G67" t="n">
-        <v>687038.2599348653</v>
-      </c>
-      <c r="H67" t="n">
-        <v>611222.1300409487</v>
-      </c>
-      <c r="I67" t="n">
-        <v>742307.0902377254</v>
-      </c>
-      <c r="J67" t="n">
-        <v>932558.2744937621</v>
-      </c>
-      <c r="K67" t="n">
-        <v>956705.2073330956</v>
-      </c>
-      <c r="L67" t="n">
-        <v>793226.7720053798</v>
-      </c>
-      <c r="M67" t="n">
-        <v>794547.4071394897</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2901120.196219736</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3030250.609342628</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3054024.981593294</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3090575.591545286</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3218832.744009541</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3380956.628233554</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3239142.409458311</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3379620.115783723</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3546401.830492081</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3779246.006276073</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3830042.916894863</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4196879.677150168</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3064358.240712686</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3206918.657695469</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3413773.080619832</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3512679.223845503</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3624901.145200245</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3683945.766134742</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3638698.977963175</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3866928.975392379</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3984271.14446067</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4360664.875068119</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4381201.339303511</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4448882.717576859</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7310090.414627059</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6974103.106123167</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7492253.479351521</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7687071.537372621</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7711648.565311925</v>
-      </c>
-      <c r="G70" t="n">
-        <v>8011419.91403525</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7767596.271296712</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7808650.361056838</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7516112.210223338</v>
-      </c>
-      <c r="K70" t="n">
-        <v>8049385.075293787</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8297035.31517165</v>
-      </c>
-      <c r="M70" t="n">
-        <v>9298069.022315575</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20937070.1433046</v>
-      </c>
-      <c r="C71" t="n">
-        <v>22375768.53237043</v>
-      </c>
-      <c r="D71" t="n">
-        <v>24108048.71543545</v>
-      </c>
-      <c r="E71" t="n">
-        <v>24572975.20096506</v>
-      </c>
-      <c r="F71" t="n">
-        <v>26485867.990599</v>
-      </c>
-      <c r="G71" t="n">
-        <v>36234958.31175345</v>
-      </c>
-      <c r="H71" t="n">
-        <v>19870012.91442012</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29404383.22571741</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29911085.51807173</v>
-      </c>
-      <c r="K71" t="n">
-        <v>30657757.97811285</v>
-      </c>
-      <c r="L71" t="n">
-        <v>32167792.06140009</v>
-      </c>
-      <c r="M71" t="n">
-        <v>33325943.9228617</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3734027.006406494</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2976179.259149883</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3831052.03703683</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2144253.897968137</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4159458.871042415</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2811051.482289735</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2295096.793487022</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4362522.584258709</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4776187.024441168</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3234385.397461717</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6506790.228559671</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2414876.489540727</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9287652.755195918</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9201257.929981662</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9034059.873719569</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9685692.816390339</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8830246.973760625</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9472500.164589655</v>
-      </c>
-      <c r="H73" t="n">
-        <v>9011718.079216018</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10776648.40990759</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12045613.35675765</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11191267.90981471</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11957705.83544555</v>
-      </c>
-      <c r="M73" t="n">
-        <v>10946348.84167173</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16230900.14494506</v>
-      </c>
-      <c r="C74" t="n">
-        <v>13848487.50060026</v>
-      </c>
-      <c r="D74" t="n">
-        <v>16672121.58931033</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16082790.66515976</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17434140.62816362</v>
-      </c>
-      <c r="G74" t="n">
-        <v>23448024.08971455</v>
-      </c>
-      <c r="H74" t="n">
-        <v>11508640.44954855</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17473869.78644665</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19320165.16964057</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18851536.07301744</v>
-      </c>
-      <c r="L74" t="n">
-        <v>17337908.39182667</v>
-      </c>
-      <c r="M74" t="n">
-        <v>17873541.09006519</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24843730.01341389</v>
-      </c>
-      <c r="C75" t="n">
-        <v>25604811.10064735</v>
-      </c>
-      <c r="D75" t="n">
-        <v>24539083.49100031</v>
-      </c>
-      <c r="E75" t="n">
-        <v>24854268.92954585</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24749706.46066296</v>
-      </c>
-      <c r="G75" t="n">
-        <v>31497926.08374752</v>
-      </c>
-      <c r="H75" t="n">
-        <v>24089847.01581863</v>
-      </c>
-      <c r="I75" t="n">
-        <v>25799263.00261994</v>
-      </c>
-      <c r="J75" t="n">
-        <v>28464326.93904698</v>
-      </c>
-      <c r="K75" t="n">
-        <v>29717812.79463257</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30594685.5917865</v>
-      </c>
-      <c r="M75" t="n">
-        <v>33221082.89240863</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15429240.48804451</v>
-      </c>
-      <c r="C76" t="n">
-        <v>16832640.37054523</v>
-      </c>
-      <c r="D76" t="n">
-        <v>18370992.28743452</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20027735.47773254</v>
-      </c>
-      <c r="F76" t="n">
-        <v>21438814.00272427</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23241294.4912564</v>
-      </c>
-      <c r="H76" t="n">
-        <v>23920783.23348551</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25462128.61004944</v>
-      </c>
-      <c r="J76" t="n">
-        <v>27917402.43205423</v>
-      </c>
-      <c r="K76" t="n">
-        <v>30517270.91283248</v>
-      </c>
-      <c r="L76" t="n">
-        <v>32671302.05004949</v>
-      </c>
-      <c r="M76" t="n">
-        <v>34056350.68267618</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17939280.91331438</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18939385.57697044</v>
-      </c>
-      <c r="D77" t="n">
-        <v>20471923.82143668</v>
-      </c>
-      <c r="E77" t="n">
-        <v>22168697.98292022</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23075658.33213245</v>
-      </c>
-      <c r="G77" t="n">
-        <v>22897340.78923766</v>
-      </c>
-      <c r="H77" t="n">
-        <v>23260424.1791346</v>
-      </c>
-      <c r="I77" t="n">
-        <v>24592356.95607604</v>
-      </c>
-      <c r="J77" t="n">
-        <v>25244425.57550364</v>
-      </c>
-      <c r="K77" t="n">
-        <v>26319592.57818114</v>
-      </c>
-      <c r="L77" t="n">
-        <v>26998786.84014849</v>
-      </c>
-      <c r="M77" t="n">
-        <v>28971746.19859347</v>
+        <v>4003656.333296409</v>
       </c>
     </row>
   </sheetData>
